--- a/Asian_celebrity/Asian_celebrity_label.xlsx
+++ b/Asian_celebrity/Asian_celebrity_label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\대학원\고려대\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98dab\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A60C0A7-8B1C-4676-B099-DAF578F48C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28E8991-D823-41C1-BD27-6138AD2CFB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="219">
   <si>
     <t>label</t>
   </si>
@@ -489,6 +489,252 @@
   </si>
   <si>
     <t>1939.08.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장미희</t>
+  </si>
+  <si>
+    <t>JangMi-hee</t>
+  </si>
+  <si>
+    <t>1958.01.27</t>
+  </si>
+  <si>
+    <t>이덕화</t>
+  </si>
+  <si>
+    <t>LeeDeok-hwa</t>
+  </si>
+  <si>
+    <t>1952.05.08</t>
+  </si>
+  <si>
+    <t>정보석</t>
+  </si>
+  <si>
+    <t>JungBo-seok</t>
+  </si>
+  <si>
+    <t>1962.05.02</t>
+  </si>
+  <si>
+    <t>박상원</t>
+  </si>
+  <si>
+    <t>ParkSang-won</t>
+  </si>
+  <si>
+    <t>1959.04.05</t>
+  </si>
+  <si>
+    <t>김영란</t>
+  </si>
+  <si>
+    <t>KimYoung-ran</t>
+  </si>
+  <si>
+    <t>1956.08.19</t>
+  </si>
+  <si>
+    <t>이휘향</t>
+  </si>
+  <si>
+    <t>LeeHwi-hyang</t>
+  </si>
+  <si>
+    <t>1960.11.19</t>
+  </si>
+  <si>
+    <t>김해숙</t>
+  </si>
+  <si>
+    <t>KimHae-sook</t>
+  </si>
+  <si>
+    <t>1955.12.30</t>
+  </si>
+  <si>
+    <t>박정수</t>
+  </si>
+  <si>
+    <t>ParkJung-soo</t>
+  </si>
+  <si>
+    <t>1952.07.11</t>
+  </si>
+  <si>
+    <t>정애리</t>
+  </si>
+  <si>
+    <t>JungAe-ri</t>
+  </si>
+  <si>
+    <t>1959.09.13</t>
+  </si>
+  <si>
+    <t>최명길</t>
+  </si>
+  <si>
+    <t>ChoiMyung-gil</t>
+  </si>
+  <si>
+    <t>1962.11.11</t>
+  </si>
+  <si>
+    <t>김경애</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1945.10.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전양자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1942.02.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서승현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1943.03.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태현실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1941.12.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정재순</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1947.03.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1944.03.08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주부진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1946.08.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임동진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이대근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남궁원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송재호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백윤식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1944.04.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1940.07.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1934.08.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1937.03.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1941.03.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1947.03.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KimKyeong-ae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JeonYang-ja</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeoSeung-hyun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaeHyun-sil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JungJae-soon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeeJu-sil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JooBoo-jin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimDong-jin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeeDae-geun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NamKoong-won</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SongJae-ho</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JooHyun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeakYoon-sik</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -864,15 +1110,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +1138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -912,7 +1158,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -932,7 +1178,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -952,7 +1198,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -972,7 +1218,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -992,7 +1238,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1012,7 +1258,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1032,7 +1278,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1052,7 +1298,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1072,7 +1318,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1092,7 +1338,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1112,7 +1358,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1132,7 +1378,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1152,7 +1398,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1172,7 +1418,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1192,7 +1438,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1212,7 +1458,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1232,7 +1478,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1252,7 +1498,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1272,7 +1518,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1292,7 +1538,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1312,7 +1558,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1332,7 +1578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1352,7 +1598,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1372,7 +1618,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1392,7 +1638,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1412,7 +1658,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1432,7 +1678,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1452,7 +1698,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1472,7 +1718,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1492,7 +1738,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1512,7 +1758,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1532,7 +1778,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1552,7 +1798,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1572,7 +1818,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1592,7 +1838,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1612,7 +1858,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1632,7 +1878,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1652,7 +1898,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1672,7 +1918,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1692,7 +1938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1712,7 +1958,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1732,7 +1978,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1752,7 +1998,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1772,7 +2018,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1792,7 +2038,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1810,6 +2056,466 @@
       </c>
       <c r="F47" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" t="s">
+        <v>181</v>
+      </c>
+      <c r="E58" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" t="s">
+        <v>205</v>
+      </c>
+      <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
